--- a/market_and_place_products.xlsx
+++ b/market_and_place_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a437c04292c0aab/Desktop/Flama Investments/Market and Place/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="8_{CD95C761-C0E4-4AFC-942F-DDF72E106296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0DF58D4-FD5F-42E5-B9A7-AA0A8F8EDC9A}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="8_{CD95C761-C0E4-4AFC-942F-DDF72E106296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BE1661-FC0A-4A78-BEB2-13B47754B8FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C2BCD4A4-1E6E-43D5-9E51-84D4558B3A8E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="199">
   <si>
     <t>Product name</t>
   </si>
@@ -621,6 +621,18 @@
   </si>
   <si>
     <t>raw_amazon</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Bathroom</t>
+  </si>
+  <si>
+    <t>Bedroom</t>
+  </si>
+  <si>
+    <t>Beach</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5001EB7A-79DE-4735-BBC8-7F0CB49ADAA6}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,9 +1044,10 @@
     <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="88.90625" customWidth="1"/>
     <col min="5" max="5" width="66.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,8 +1063,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1067,8 +1083,11 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1103,11 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1101,8 +1123,11 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1118,8 +1143,11 @@
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1135,8 +1163,11 @@
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1183,11 @@
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1169,8 +1203,11 @@
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1203,8 +1243,11 @@
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1220,8 +1263,11 @@
       <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1237,8 +1283,11 @@
       <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1254,8 +1303,11 @@
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1271,8 +1323,11 @@
       <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1288,8 +1343,11 @@
       <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1305,8 +1363,11 @@
       <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1322,8 +1383,11 @@
       <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1339,8 +1403,11 @@
       <c r="E18" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1356,8 +1423,11 @@
       <c r="E19" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1373,8 +1443,11 @@
       <c r="E20" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1390,8 +1463,11 @@
       <c r="E21" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -1407,8 +1483,11 @@
       <c r="E22" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1424,8 +1503,11 @@
       <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1441,8 +1523,11 @@
       <c r="E24" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -1458,8 +1543,11 @@
       <c r="E25" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -1475,8 +1563,11 @@
       <c r="E26" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1492,8 +1583,11 @@
       <c r="E27" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1509,8 +1603,11 @@
       <c r="E28" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -1526,8 +1623,11 @@
       <c r="E29" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1543,8 +1643,11 @@
       <c r="E30" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
@@ -1560,8 +1663,11 @@
       <c r="E31" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
@@ -1577,8 +1683,11 @@
       <c r="E32" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="93" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -1594,8 +1703,11 @@
       <c r="E33" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="93" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -1611,8 +1723,11 @@
       <c r="E34" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="93" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -1628,8 +1743,11 @@
       <c r="E35" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="93" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
@@ -1645,8 +1763,11 @@
       <c r="E36" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="93" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -1662,8 +1783,11 @@
       <c r="E37" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="93" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>98</v>
       </c>
@@ -1679,8 +1803,11 @@
       <c r="E38" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -1696,8 +1823,11 @@
       <c r="E39" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -1713,8 +1843,11 @@
       <c r="E40" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
@@ -1730,8 +1863,11 @@
       <c r="E41" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -1747,8 +1883,11 @@
       <c r="E42" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -1764,8 +1903,11 @@
       <c r="E43" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
@@ -1781,8 +1923,11 @@
       <c r="E44" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
@@ -1798,8 +1943,11 @@
       <c r="E45" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>134</v>
       </c>
@@ -1815,8 +1963,11 @@
       <c r="E46" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -1832,8 +1983,11 @@
       <c r="E47" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>134</v>
       </c>
@@ -1849,8 +2003,11 @@
       <c r="E48" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>134</v>
       </c>
@@ -1866,8 +2023,11 @@
       <c r="E49" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>134</v>
       </c>
@@ -1883,8 +2043,11 @@
       <c r="E50" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>134</v>
       </c>
@@ -1900,8 +2063,11 @@
       <c r="E51" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>134</v>
       </c>
@@ -1917,8 +2083,11 @@
       <c r="E52" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>134</v>
       </c>
@@ -1934,8 +2103,11 @@
       <c r="E53" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -1951,8 +2123,11 @@
       <c r="E54" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -1968,8 +2143,11 @@
       <c r="E55" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
@@ -1985,8 +2163,11 @@
       <c r="E56" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>134</v>
       </c>
@@ -2002,8 +2183,11 @@
       <c r="E57" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>134</v>
       </c>
@@ -2019,8 +2203,11 @@
       <c r="E58" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>134</v>
       </c>
@@ -2036,8 +2223,11 @@
       <c r="E59" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
@@ -2053,8 +2243,11 @@
       <c r="E60" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>134</v>
       </c>
@@ -2070,8 +2263,11 @@
       <c r="E61" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
@@ -2087,8 +2283,11 @@
       <c r="E62" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
@@ -2104,8 +2303,11 @@
       <c r="E63" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -2121,8 +2323,11 @@
       <c r="E64" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="F64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>134</v>
       </c>
@@ -2137,6 +2342,9 @@
       </c>
       <c r="E65" s="2" t="s">
         <v>181</v>
+      </c>
+      <c r="F65" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
